--- a/apps/load_data/2016/05/PLMOVMAE.xlsx
+++ b/apps/load_data/2016/05/PLMOVMAE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2016\HHY0516\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ACTUALIZADOS\2016\HHY0516\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E96A860-485A-437A-98D1-4591A4A41ACC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C92EE72-24F3-4C6E-B271-92C5245CF9D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CF$311</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CF$237</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12651" uniqueCount="2401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12636" uniqueCount="2400">
   <si>
     <t>CODEJE</t>
   </si>
@@ -6371,9 +6372,6 @@
   </si>
   <si>
     <t>08771747</t>
-  </si>
-  <si>
-    <t>S/N</t>
   </si>
   <si>
     <t>1081    296920    2969201082    159880    1598802001         0     386012006     25800     258002026    156960    1569602086      2500      25002180       250       2502182       100       1002503        50        503004         0     26723</t>
@@ -8084,8 +8082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CF311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
-      <selection activeCell="K239" sqref="K239"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD301" sqref="AC210:AD301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44890,12 +44888,7 @@
       <c r="AA210" s="1">
         <v>0</v>
       </c>
-      <c r="AC210" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD210" s="1" t="s">
-        <v>2116</v>
-      </c>
+      <c r="AC210" s="3"/>
       <c r="AF210" s="1" t="s">
         <v>103</v>
       </c>
@@ -44960,7 +44953,7 @@
         <v>111</v>
       </c>
       <c r="BH210" s="1" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="BI210" s="1" t="s">
         <v>1776</v>
@@ -44972,7 +44965,7 @@
         <v>102</v>
       </c>
       <c r="BT210" s="1" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="BU210" s="1" t="s">
         <v>118</v>
@@ -44993,13 +44986,13 @@
         <v>98</v>
       </c>
       <c r="CC210" s="1" t="s">
+        <v>2118</v>
+      </c>
+      <c r="CD210" s="1" t="s">
         <v>2119</v>
       </c>
-      <c r="CD210" s="1" t="s">
+      <c r="CE210" s="1" t="s">
         <v>2120</v>
-      </c>
-      <c r="CE210" s="1" t="s">
-        <v>2121</v>
       </c>
     </row>
     <row r="211" spans="1:83" x14ac:dyDescent="0.25">
@@ -45034,13 +45027,13 @@
         <v>93</v>
       </c>
       <c r="K211" s="1" t="s">
+        <v>2121</v>
+      </c>
+      <c r="L211" s="1" t="s">
         <v>2122</v>
       </c>
-      <c r="L211" s="1" t="s">
+      <c r="N211" s="1" t="s">
         <v>2123</v>
-      </c>
-      <c r="N211" s="1" t="s">
-        <v>2124</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>97</v>
@@ -45072,12 +45065,7 @@
       <c r="AB211" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="AC211" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD211" s="1" t="s">
-        <v>2116</v>
-      </c>
+      <c r="AC211" s="3"/>
       <c r="AF211" s="1" t="s">
         <v>103</v>
       </c>
@@ -45124,7 +45112,7 @@
         <v>98</v>
       </c>
       <c r="AZ211" s="1" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="BB211" s="1">
         <v>5</v>
@@ -45142,7 +45130,7 @@
         <v>111</v>
       </c>
       <c r="BH211" s="1" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="BI211" s="1" t="s">
         <v>1489</v>
@@ -45157,13 +45145,13 @@
         <v>99</v>
       </c>
       <c r="BR211" s="1" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="BS211" s="3">
         <v>36949</v>
       </c>
       <c r="BT211" s="1" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="BU211" s="1" t="s">
         <v>118</v>
@@ -45187,13 +45175,13 @@
         <v>98</v>
       </c>
       <c r="CC211" s="1" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="CD211" s="1" t="s">
         <v>1762</v>
       </c>
       <c r="CE211" s="1" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="212" spans="1:83" x14ac:dyDescent="0.25">
@@ -45228,13 +45216,13 @@
         <v>93</v>
       </c>
       <c r="K212" s="1" t="s">
+        <v>2130</v>
+      </c>
+      <c r="L212" s="1" t="s">
         <v>2131</v>
       </c>
-      <c r="L212" s="1" t="s">
+      <c r="N212" s="1" t="s">
         <v>2132</v>
-      </c>
-      <c r="N212" s="1" t="s">
-        <v>2133</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>97</v>
@@ -45266,12 +45254,7 @@
       <c r="AB212" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="AC212" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD212" s="1" t="s">
-        <v>2116</v>
-      </c>
+      <c r="AC212" s="3"/>
       <c r="AF212" s="1" t="s">
         <v>103</v>
       </c>
@@ -45318,7 +45301,7 @@
         <v>98</v>
       </c>
       <c r="AZ212" s="1" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="BB212" s="1">
         <v>5</v>
@@ -45339,10 +45322,10 @@
         <v>111</v>
       </c>
       <c r="BH212" s="1" t="s">
+        <v>2134</v>
+      </c>
+      <c r="BI212" s="1" t="s">
         <v>2135</v>
-      </c>
-      <c r="BI212" s="1" t="s">
-        <v>2136</v>
       </c>
       <c r="BM212" s="1" t="s">
         <v>114</v>
@@ -45354,13 +45337,13 @@
         <v>99</v>
       </c>
       <c r="BR212" s="1" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="BS212" s="3">
         <v>36825</v>
       </c>
       <c r="BT212" s="1" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="BU212" s="1" t="s">
         <v>118</v>
@@ -45384,13 +45367,13 @@
         <v>98</v>
       </c>
       <c r="CC212" s="1" t="s">
+        <v>2138</v>
+      </c>
+      <c r="CD212" s="1" t="s">
         <v>2139</v>
       </c>
-      <c r="CD212" s="1" t="s">
+      <c r="CE212" s="1" t="s">
         <v>2140</v>
-      </c>
-      <c r="CE212" s="1" t="s">
-        <v>2141</v>
       </c>
     </row>
     <row r="213" spans="1:83" x14ac:dyDescent="0.25">
@@ -45425,13 +45408,13 @@
         <v>93</v>
       </c>
       <c r="K213" s="1" t="s">
+        <v>2141</v>
+      </c>
+      <c r="L213" s="1" t="s">
         <v>2142</v>
       </c>
-      <c r="L213" s="1" t="s">
+      <c r="N213" s="1" t="s">
         <v>2143</v>
-      </c>
-      <c r="N213" s="1" t="s">
-        <v>2144</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>97</v>
@@ -45460,12 +45443,7 @@
       <c r="AA213" s="1">
         <v>0</v>
       </c>
-      <c r="AC213" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD213" s="1" t="s">
-        <v>2116</v>
-      </c>
+      <c r="AC213" s="3"/>
       <c r="AF213" s="1" t="s">
         <v>103</v>
       </c>
@@ -45515,7 +45493,7 @@
         <v>98</v>
       </c>
       <c r="AZ213" s="1" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="BB213" s="1">
         <v>5</v>
@@ -45533,7 +45511,7 @@
         <v>111</v>
       </c>
       <c r="BH213" s="1" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="BI213" s="1" t="s">
         <v>182</v>
@@ -45545,7 +45523,7 @@
         <v>102</v>
       </c>
       <c r="BT213" s="1" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="BU213" s="1" t="s">
         <v>118</v>
@@ -45563,13 +45541,13 @@
         <v>98</v>
       </c>
       <c r="CC213" s="1" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="CD213" s="1" t="s">
         <v>1084</v>
       </c>
       <c r="CE213" s="1" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="214" spans="1:83" x14ac:dyDescent="0.25">
@@ -45604,13 +45582,13 @@
         <v>93</v>
       </c>
       <c r="K214" s="1" t="s">
+        <v>2149</v>
+      </c>
+      <c r="L214" s="1" t="s">
         <v>2150</v>
       </c>
-      <c r="L214" s="1" t="s">
+      <c r="N214" s="1" t="s">
         <v>2151</v>
-      </c>
-      <c r="N214" s="1" t="s">
-        <v>2152</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>97</v>
@@ -45639,12 +45617,7 @@
       <c r="AA214" s="1">
         <v>0</v>
       </c>
-      <c r="AC214" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD214" s="1" t="s">
-        <v>2116</v>
-      </c>
+      <c r="AC214" s="3"/>
       <c r="AF214" s="1" t="s">
         <v>103</v>
       </c>
@@ -45694,7 +45667,7 @@
         <v>98</v>
       </c>
       <c r="AZ214" s="1" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="BB214" s="1">
         <v>5</v>
@@ -45712,7 +45685,7 @@
         <v>111</v>
       </c>
       <c r="BH214" s="1" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="BI214" s="1" t="s">
         <v>789</v>
@@ -45724,7 +45697,7 @@
         <v>102</v>
       </c>
       <c r="BT214" s="1" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="BU214" s="1" t="s">
         <v>118</v>
@@ -45745,10 +45718,10 @@
         <v>624</v>
       </c>
       <c r="CD214" s="1" t="s">
+        <v>2155</v>
+      </c>
+      <c r="CE214" s="1" t="s">
         <v>2156</v>
-      </c>
-      <c r="CE214" s="1" t="s">
-        <v>2157</v>
       </c>
     </row>
     <row r="215" spans="1:83" x14ac:dyDescent="0.25">
@@ -45783,13 +45756,13 @@
         <v>93</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2157</v>
+      </c>
+      <c r="L215" s="1" t="s">
         <v>2158</v>
       </c>
-      <c r="L215" s="1" t="s">
+      <c r="N215" s="1" t="s">
         <v>2159</v>
-      </c>
-      <c r="N215" s="1" t="s">
-        <v>2160</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>97</v>
@@ -45818,12 +45791,7 @@
       <c r="AA215" s="1">
         <v>0</v>
       </c>
-      <c r="AC215" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD215" s="1" t="s">
-        <v>2116</v>
-      </c>
+      <c r="AC215" s="3"/>
       <c r="AF215" s="1" t="s">
         <v>103</v>
       </c>
@@ -45873,7 +45841,7 @@
         <v>98</v>
       </c>
       <c r="AZ215" s="1" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="BB215" s="1">
         <v>5</v>
@@ -45891,7 +45859,7 @@
         <v>111</v>
       </c>
       <c r="BH215" s="1" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="BI215" s="1" t="s">
         <v>182</v>
@@ -45903,7 +45871,7 @@
         <v>102</v>
       </c>
       <c r="BT215" s="1" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="BU215" s="1" t="s">
         <v>118</v>
@@ -45921,13 +45889,13 @@
         <v>98</v>
       </c>
       <c r="CC215" s="1" t="s">
+        <v>2163</v>
+      </c>
+      <c r="CD215" s="1" t="s">
+        <v>2163</v>
+      </c>
+      <c r="CE215" s="1" t="s">
         <v>2164</v>
-      </c>
-      <c r="CD215" s="1" t="s">
-        <v>2164</v>
-      </c>
-      <c r="CE215" s="1" t="s">
-        <v>2165</v>
       </c>
     </row>
     <row r="216" spans="1:83" x14ac:dyDescent="0.25">
@@ -45962,13 +45930,13 @@
         <v>93</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2165</v>
+      </c>
+      <c r="L216" s="1" t="s">
         <v>2166</v>
       </c>
-      <c r="L216" s="1" t="s">
+      <c r="N216" s="1" t="s">
         <v>2167</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2168</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>97</v>
@@ -46003,12 +45971,7 @@
       <c r="AA216" s="1">
         <v>0</v>
       </c>
-      <c r="AC216" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD216" s="1" t="s">
-        <v>2116</v>
-      </c>
+      <c r="AC216" s="3"/>
       <c r="AF216" s="1" t="s">
         <v>103</v>
       </c>
@@ -46055,7 +46018,7 @@
         <v>98</v>
       </c>
       <c r="AZ216" s="1" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="BB216" s="1">
         <v>5</v>
@@ -46064,7 +46027,7 @@
         <v>16</v>
       </c>
       <c r="BD216" s="1" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="BE216" s="1" t="s">
         <v>109</v>
@@ -46076,10 +46039,10 @@
         <v>111</v>
       </c>
       <c r="BH216" s="1" t="s">
+        <v>2170</v>
+      </c>
+      <c r="BI216" s="1" t="s">
         <v>2171</v>
-      </c>
-      <c r="BI216" s="1" t="s">
-        <v>2172</v>
       </c>
       <c r="BM216" s="1" t="s">
         <v>114</v>
@@ -46091,13 +46054,13 @@
         <v>115</v>
       </c>
       <c r="BR216" s="1" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="BS216" s="3">
         <v>35243</v>
       </c>
       <c r="BT216" s="1" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="BU216" s="1" t="s">
         <v>118</v>
@@ -46115,13 +46078,13 @@
         <v>98</v>
       </c>
       <c r="CC216" s="1" t="s">
+        <v>2174</v>
+      </c>
+      <c r="CD216" s="1" t="s">
         <v>2175</v>
       </c>
-      <c r="CD216" s="1" t="s">
+      <c r="CE216" s="1" t="s">
         <v>2176</v>
-      </c>
-      <c r="CE216" s="1" t="s">
-        <v>2177</v>
       </c>
     </row>
     <row r="217" spans="1:83" x14ac:dyDescent="0.25">
@@ -46156,13 +46119,13 @@
         <v>93</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2177</v>
+      </c>
+      <c r="L217" s="1" t="s">
         <v>2178</v>
       </c>
-      <c r="L217" s="1" t="s">
+      <c r="N217" s="1" t="s">
         <v>2179</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2180</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>97</v>
@@ -46191,12 +46154,7 @@
       <c r="AA217" s="1">
         <v>0</v>
       </c>
-      <c r="AC217" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD217" s="1" t="s">
-        <v>2116</v>
-      </c>
+      <c r="AC217" s="3"/>
       <c r="AF217" s="1" t="s">
         <v>103</v>
       </c>
@@ -46246,7 +46204,7 @@
         <v>98</v>
       </c>
       <c r="AZ217" s="1" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="BB217" s="1">
         <v>5</v>
@@ -46264,7 +46222,7 @@
         <v>111</v>
       </c>
       <c r="BH217" s="1" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="BI217" s="1" t="s">
         <v>182</v>
@@ -46276,7 +46234,7 @@
         <v>102</v>
       </c>
       <c r="BT217" s="1" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="BU217" s="1" t="s">
         <v>118</v>
@@ -46294,13 +46252,13 @@
         <v>98</v>
       </c>
       <c r="CC217" s="1" t="s">
+        <v>2183</v>
+      </c>
+      <c r="CD217" s="1" t="s">
         <v>2184</v>
       </c>
-      <c r="CD217" s="1" t="s">
+      <c r="CE217" s="1" t="s">
         <v>2185</v>
-      </c>
-      <c r="CE217" s="1" t="s">
-        <v>2186</v>
       </c>
     </row>
     <row r="218" spans="1:83" x14ac:dyDescent="0.25">
@@ -46335,13 +46293,13 @@
         <v>93</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2186</v>
+      </c>
+      <c r="L218" s="1" t="s">
         <v>2187</v>
       </c>
-      <c r="L218" s="1" t="s">
+      <c r="N218" s="1" t="s">
         <v>2188</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2189</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>97</v>
@@ -46370,12 +46328,7 @@
       <c r="AA218" s="1">
         <v>0</v>
       </c>
-      <c r="AC218" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2116</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>103</v>
       </c>
@@ -46425,7 +46378,7 @@
         <v>98</v>
       </c>
       <c r="AZ218" s="1" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="BB218" s="1">
         <v>5</v>
@@ -46443,10 +46396,10 @@
         <v>111</v>
       </c>
       <c r="BH218" s="1" t="s">
+        <v>2190</v>
+      </c>
+      <c r="BI218" s="1" t="s">
         <v>2191</v>
-      </c>
-      <c r="BI218" s="1" t="s">
-        <v>2192</v>
       </c>
       <c r="BM218" s="1" t="s">
         <v>114</v>
@@ -46458,7 +46411,7 @@
         <v>155</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>118</v>
@@ -46476,13 +46429,13 @@
         <v>98</v>
       </c>
       <c r="CC218" s="1" t="s">
+        <v>2193</v>
+      </c>
+      <c r="CD218" s="1" t="s">
         <v>2194</v>
       </c>
-      <c r="CD218" s="1" t="s">
+      <c r="CE218" s="1" t="s">
         <v>2195</v>
-      </c>
-      <c r="CE218" s="1" t="s">
-        <v>2196</v>
       </c>
     </row>
     <row r="219" spans="1:83" x14ac:dyDescent="0.25">
@@ -46517,13 +46470,13 @@
         <v>93</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2196</v>
+      </c>
+      <c r="L219" s="1" t="s">
         <v>2197</v>
       </c>
-      <c r="L219" s="1" t="s">
+      <c r="N219" s="1" t="s">
         <v>2198</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2199</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>97</v>
@@ -46552,12 +46505,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2116</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>103</v>
       </c>
@@ -46604,7 +46552,7 @@
         <v>98</v>
       </c>
       <c r="AZ219" s="1" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="BB219" s="1">
         <v>5</v>
@@ -46613,7 +46561,7 @@
         <v>16</v>
       </c>
       <c r="BD219" s="1" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="BE219" s="1" t="s">
         <v>109</v>
@@ -46625,10 +46573,10 @@
         <v>111</v>
       </c>
       <c r="BH219" s="1" t="s">
+        <v>2201</v>
+      </c>
+      <c r="BI219" s="1" t="s">
         <v>2202</v>
-      </c>
-      <c r="BI219" s="1" t="s">
-        <v>2203</v>
       </c>
       <c r="BM219" s="1" t="s">
         <v>114</v>
@@ -46640,13 +46588,13 @@
         <v>207</v>
       </c>
       <c r="BR219" s="1" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="BS219" s="3">
         <v>34307</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>118</v>
@@ -46664,13 +46612,13 @@
         <v>98</v>
       </c>
       <c r="CC219" s="1" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="CD219" s="1" t="s">
         <v>413</v>
       </c>
       <c r="CE219" s="1" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="220" spans="1:83" x14ac:dyDescent="0.25">
@@ -46705,13 +46653,13 @@
         <v>93</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2207</v>
+      </c>
+      <c r="L220" s="1" t="s">
         <v>2208</v>
       </c>
-      <c r="L220" s="1" t="s">
+      <c r="N220" s="1" t="s">
         <v>2209</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2210</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>97</v>
@@ -46743,12 +46691,7 @@
       <c r="AA220" s="1">
         <v>0</v>
       </c>
-      <c r="AC220" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD220" s="1" t="s">
-        <v>2116</v>
-      </c>
+      <c r="AC220" s="3"/>
       <c r="AF220" s="1" t="s">
         <v>103</v>
       </c>
@@ -46798,7 +46741,7 @@
         <v>98</v>
       </c>
       <c r="AZ220" s="1" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="BB220" s="1">
         <v>5</v>
@@ -46819,7 +46762,7 @@
         <v>111</v>
       </c>
       <c r="BH220" s="1" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="BI220" s="1" t="s">
         <v>182</v>
@@ -46831,7 +46774,7 @@
         <v>102</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>118</v>
@@ -46852,13 +46795,13 @@
         <v>98</v>
       </c>
       <c r="CC220" s="1" t="s">
+        <v>2213</v>
+      </c>
+      <c r="CD220" s="1" t="s">
         <v>2214</v>
       </c>
-      <c r="CD220" s="1" t="s">
+      <c r="CE220" s="1" t="s">
         <v>2215</v>
-      </c>
-      <c r="CE220" s="1" t="s">
-        <v>2216</v>
       </c>
     </row>
     <row r="221" spans="1:83" x14ac:dyDescent="0.25">
@@ -46893,13 +46836,13 @@
         <v>93</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2216</v>
+      </c>
+      <c r="L221" s="1" t="s">
         <v>2217</v>
       </c>
-      <c r="L221" s="1" t="s">
+      <c r="N221" s="1" t="s">
         <v>2218</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2219</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>97</v>
@@ -46928,12 +46871,7 @@
       <c r="AA221" s="1">
         <v>0</v>
       </c>
-      <c r="AC221" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD221" s="1" t="s">
-        <v>2116</v>
-      </c>
+      <c r="AC221" s="3"/>
       <c r="AF221" s="1" t="s">
         <v>103</v>
       </c>
@@ -46980,7 +46918,7 @@
         <v>98</v>
       </c>
       <c r="AZ221" s="1" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="BB221" s="1">
         <v>5</v>
@@ -47001,10 +46939,10 @@
         <v>111</v>
       </c>
       <c r="BH221" s="1" t="s">
+        <v>2220</v>
+      </c>
+      <c r="BI221" s="1" t="s">
         <v>2221</v>
-      </c>
-      <c r="BI221" s="1" t="s">
-        <v>2222</v>
       </c>
       <c r="BM221" s="1" t="s">
         <v>114</v>
@@ -47016,13 +46954,13 @@
         <v>115</v>
       </c>
       <c r="BR221" s="1" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="BS221" s="3">
         <v>35950</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>118</v>
@@ -47040,13 +46978,13 @@
         <v>98</v>
       </c>
       <c r="CC221" s="1" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="CD221" s="1" t="s">
         <v>1598</v>
       </c>
       <c r="CE221" s="1" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="222" spans="1:83" x14ac:dyDescent="0.25">
@@ -47081,13 +47019,13 @@
         <v>144</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2226</v>
+      </c>
+      <c r="L222" s="1" t="s">
         <v>2227</v>
       </c>
-      <c r="L222" s="1" t="s">
+      <c r="N222" s="1" t="s">
         <v>2228</v>
-      </c>
-      <c r="N222" s="1" t="s">
-        <v>2229</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>97</v>
@@ -47138,7 +47076,7 @@
         <v>0</v>
       </c>
       <c r="AN222" s="1" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="AO222" s="1">
         <v>0</v>
@@ -47183,13 +47121,13 @@
         <v>111</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="BM222" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>118</v>
@@ -47213,10 +47151,10 @@
         <v>2018</v>
       </c>
       <c r="CD222" s="1" t="s">
+        <v>2232</v>
+      </c>
+      <c r="CE222" s="1" t="s">
         <v>2233</v>
-      </c>
-      <c r="CE222" s="1" t="s">
-        <v>2234</v>
       </c>
     </row>
     <row r="223" spans="1:83" x14ac:dyDescent="0.25">
@@ -47251,13 +47189,13 @@
         <v>144</v>
       </c>
       <c r="K223" s="1" t="s">
+        <v>2234</v>
+      </c>
+      <c r="L223" s="1" t="s">
         <v>2235</v>
       </c>
-      <c r="L223" s="1" t="s">
+      <c r="N223" s="1" t="s">
         <v>2236</v>
-      </c>
-      <c r="N223" s="1" t="s">
-        <v>2237</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>97</v>
@@ -47311,7 +47249,7 @@
         <v>0</v>
       </c>
       <c r="AN223" s="1" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="AO223" s="1">
         <v>0</v>
@@ -47356,13 +47294,13 @@
         <v>111</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="BM223" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>118</v>
@@ -47383,13 +47321,13 @@
         <v>98</v>
       </c>
       <c r="CC223" s="1" t="s">
+        <v>2239</v>
+      </c>
+      <c r="CD223" s="1" t="s">
         <v>2240</v>
       </c>
-      <c r="CD223" s="1" t="s">
+      <c r="CE223" s="1" t="s">
         <v>2241</v>
-      </c>
-      <c r="CE223" s="1" t="s">
-        <v>2242</v>
       </c>
     </row>
     <row r="224" spans="1:83" x14ac:dyDescent="0.25">
@@ -47424,13 +47362,13 @@
         <v>144</v>
       </c>
       <c r="K224" s="1" t="s">
+        <v>2242</v>
+      </c>
+      <c r="L224" s="1" t="s">
         <v>2243</v>
       </c>
-      <c r="L224" s="1" t="s">
+      <c r="N224" s="1" t="s">
         <v>2244</v>
-      </c>
-      <c r="N224" s="1" t="s">
-        <v>2245</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>97</v>
@@ -47484,7 +47422,7 @@
         <v>0</v>
       </c>
       <c r="AN224" s="1" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="AO224" s="1">
         <v>0</v>
@@ -47529,13 +47467,13 @@
         <v>111</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="BM224" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>118</v>
@@ -47556,13 +47494,13 @@
         <v>98</v>
       </c>
       <c r="CC224" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="CD224" s="1" t="s">
         <v>2248</v>
       </c>
-      <c r="CD224" s="1" t="s">
+      <c r="CE224" s="1" t="s">
         <v>2249</v>
-      </c>
-      <c r="CE224" s="1" t="s">
-        <v>2250</v>
       </c>
     </row>
     <row r="225" spans="1:84" x14ac:dyDescent="0.25">
@@ -47597,13 +47535,13 @@
         <v>144</v>
       </c>
       <c r="K225" s="1" t="s">
+        <v>2250</v>
+      </c>
+      <c r="L225" s="1" t="s">
         <v>2251</v>
       </c>
-      <c r="L225" s="1" t="s">
+      <c r="N225" s="1" t="s">
         <v>2252</v>
-      </c>
-      <c r="N225" s="1" t="s">
-        <v>2253</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>97</v>
@@ -47699,13 +47637,13 @@
         <v>111</v>
       </c>
       <c r="BH225" s="1" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="BM225" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>118</v>
@@ -47726,10 +47664,10 @@
         <v>98</v>
       </c>
       <c r="CC225" s="1" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="CD225" s="1" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="CE225" s="1" t="s">
         <v>199</v>
@@ -47767,13 +47705,13 @@
         <v>144</v>
       </c>
       <c r="K226" s="1" t="s">
+        <v>2256</v>
+      </c>
+      <c r="L226" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="L226" s="1" t="s">
+      <c r="N226" s="1" t="s">
         <v>2258</v>
-      </c>
-      <c r="N226" s="1" t="s">
-        <v>2259</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>97</v>
@@ -47827,7 +47765,7 @@
         <v>0</v>
       </c>
       <c r="AN226" s="1" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="AO226" s="1">
         <v>0</v>
@@ -47872,13 +47810,13 @@
         <v>111</v>
       </c>
       <c r="BH226" s="1" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="BM226" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT226" s="1" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="BU226" s="1" t="s">
         <v>118</v>
@@ -47902,13 +47840,13 @@
         <v>98</v>
       </c>
       <c r="CC226" s="1" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="CD226" s="1" t="s">
         <v>1107</v>
       </c>
       <c r="CE226" s="1" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="227" spans="1:84" x14ac:dyDescent="0.25">
@@ -47943,13 +47881,13 @@
         <v>144</v>
       </c>
       <c r="K227" s="1" t="s">
+        <v>2262</v>
+      </c>
+      <c r="L227" s="1" t="s">
         <v>2263</v>
       </c>
-      <c r="L227" s="1" t="s">
+      <c r="N227" s="1" t="s">
         <v>2264</v>
-      </c>
-      <c r="N227" s="1" t="s">
-        <v>2265</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>97</v>
@@ -48000,7 +47938,7 @@
         <v>0</v>
       </c>
       <c r="AN227" s="1" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="AO227" s="1">
         <v>0</v>
@@ -48045,13 +47983,13 @@
         <v>111</v>
       </c>
       <c r="BH227" s="1" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="BM227" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT227" s="1" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="BU227" s="1" t="s">
         <v>118</v>
@@ -48072,13 +48010,13 @@
         <v>98</v>
       </c>
       <c r="CC227" s="1" t="s">
+        <v>2268</v>
+      </c>
+      <c r="CD227" s="1" t="s">
+        <v>2184</v>
+      </c>
+      <c r="CE227" s="1" t="s">
         <v>2269</v>
-      </c>
-      <c r="CD227" s="1" t="s">
-        <v>2185</v>
-      </c>
-      <c r="CE227" s="1" t="s">
-        <v>2270</v>
       </c>
     </row>
     <row r="228" spans="1:84" x14ac:dyDescent="0.25">
@@ -48113,13 +48051,13 @@
         <v>93</v>
       </c>
       <c r="K228" s="1" t="s">
+        <v>2270</v>
+      </c>
+      <c r="L228" s="1" t="s">
         <v>2271</v>
       </c>
-      <c r="L228" s="1" t="s">
+      <c r="N228" s="1" t="s">
         <v>2272</v>
-      </c>
-      <c r="N228" s="1" t="s">
-        <v>2273</v>
       </c>
       <c r="O228" s="1" t="s">
         <v>97</v>
@@ -48158,7 +48096,7 @@
         <v>42247</v>
       </c>
       <c r="AD228" s="1" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="AF228" s="1" t="s">
         <v>103</v>
@@ -48224,10 +48162,10 @@
         <v>111</v>
       </c>
       <c r="BH228" s="1" t="s">
+        <v>2274</v>
+      </c>
+      <c r="BI228" s="1" t="s">
         <v>2275</v>
-      </c>
-      <c r="BI228" s="1" t="s">
-        <v>2276</v>
       </c>
       <c r="BM228" s="1" t="s">
         <v>114</v>
@@ -48239,13 +48177,13 @@
         <v>207</v>
       </c>
       <c r="BR228" s="1" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="BS228" s="3">
         <v>36580</v>
       </c>
       <c r="BT228" s="1" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="BU228" s="1" t="s">
         <v>118</v>
@@ -48266,7 +48204,7 @@
         <v>98</v>
       </c>
       <c r="CC228" s="1" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="CD228" s="1" t="s">
         <v>291</v>
@@ -48307,13 +48245,13 @@
         <v>93</v>
       </c>
       <c r="K229" s="1" t="s">
+        <v>2279</v>
+      </c>
+      <c r="L229" s="1" t="s">
         <v>2280</v>
       </c>
-      <c r="L229" s="1" t="s">
+      <c r="N229" s="1" t="s">
         <v>2281</v>
-      </c>
-      <c r="N229" s="1" t="s">
-        <v>2282</v>
       </c>
       <c r="O229" s="1" t="s">
         <v>97</v>
@@ -48406,13 +48344,13 @@
         <v>111</v>
       </c>
       <c r="BH229" s="1" t="s">
+        <v>2282</v>
+      </c>
+      <c r="BI229" s="1" t="s">
         <v>2283</v>
       </c>
-      <c r="BI229" s="1" t="s">
+      <c r="BJ229" s="1" t="s">
         <v>2284</v>
-      </c>
-      <c r="BJ229" s="1" t="s">
-        <v>2285</v>
       </c>
       <c r="BM229" s="1" t="s">
         <v>114</v>
@@ -48427,7 +48365,7 @@
         <v>35679</v>
       </c>
       <c r="BT229" s="1" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="BU229" s="1" t="s">
         <v>118</v>
@@ -48445,7 +48383,7 @@
         <v>89</v>
       </c>
       <c r="CC229" s="1" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="CD229" s="1" t="s">
         <v>261</v>
@@ -48486,13 +48424,13 @@
         <v>93</v>
       </c>
       <c r="K230" s="1" t="s">
+        <v>2287</v>
+      </c>
+      <c r="L230" s="1" t="s">
         <v>2288</v>
       </c>
-      <c r="L230" s="1" t="s">
+      <c r="N230" s="1" t="s">
         <v>2289</v>
-      </c>
-      <c r="N230" s="1" t="s">
-        <v>2290</v>
       </c>
       <c r="O230" s="1" t="s">
         <v>97</v>
@@ -48573,7 +48511,7 @@
         <v>98</v>
       </c>
       <c r="AZ230" s="1" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="BB230" s="1">
         <v>5</v>
@@ -48591,7 +48529,7 @@
         <v>111</v>
       </c>
       <c r="BH230" s="1" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="BM230" s="1" t="s">
         <v>114</v>
@@ -48603,7 +48541,7 @@
         <v>155</v>
       </c>
       <c r="BT230" s="1" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="BU230" s="1" t="s">
         <v>118</v>
@@ -48621,13 +48559,13 @@
         <v>98</v>
       </c>
       <c r="CC230" s="1" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="CD230" s="1" t="s">
         <v>413</v>
       </c>
       <c r="CE230" s="1" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="231" spans="1:84" x14ac:dyDescent="0.25">
@@ -48662,13 +48600,13 @@
         <v>93</v>
       </c>
       <c r="K231" s="1" t="s">
+        <v>2295</v>
+      </c>
+      <c r="L231" s="1" t="s">
         <v>2296</v>
       </c>
-      <c r="L231" s="1" t="s">
+      <c r="N231" s="1" t="s">
         <v>2297</v>
-      </c>
-      <c r="N231" s="1" t="s">
-        <v>2298</v>
       </c>
       <c r="O231" s="1" t="s">
         <v>97</v>
@@ -48746,7 +48684,7 @@
         <v>98</v>
       </c>
       <c r="AZ231" s="1" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="BB231" s="1">
         <v>5</v>
@@ -48764,7 +48702,7 @@
         <v>111</v>
       </c>
       <c r="BH231" s="1" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
       <c r="BI231" s="1" t="s">
         <v>1702</v>
@@ -48779,13 +48717,13 @@
         <v>207</v>
       </c>
       <c r="BR231" s="1" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="BS231" s="3">
         <v>36099</v>
       </c>
       <c r="BT231" s="1" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="BU231" s="1" t="s">
         <v>118</v>
@@ -48803,13 +48741,13 @@
         <v>98</v>
       </c>
       <c r="CC231" s="1" t="s">
+        <v>2302</v>
+      </c>
+      <c r="CD231" s="1" t="s">
         <v>2303</v>
       </c>
-      <c r="CD231" s="1" t="s">
+      <c r="CE231" s="1" t="s">
         <v>2304</v>
-      </c>
-      <c r="CE231" s="1" t="s">
-        <v>2305</v>
       </c>
     </row>
     <row r="232" spans="1:84" x14ac:dyDescent="0.25">
@@ -48844,13 +48782,13 @@
         <v>93</v>
       </c>
       <c r="K232" s="1" t="s">
+        <v>2305</v>
+      </c>
+      <c r="L232" s="1" t="s">
         <v>2306</v>
       </c>
-      <c r="L232" s="1" t="s">
+      <c r="N232" s="1" t="s">
         <v>2307</v>
-      </c>
-      <c r="N232" s="1" t="s">
-        <v>2308</v>
       </c>
       <c r="O232" s="1" t="s">
         <v>97</v>
@@ -48928,7 +48866,7 @@
         <v>98</v>
       </c>
       <c r="AZ232" s="1" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="BB232" s="1">
         <v>5</v>
@@ -48946,7 +48884,7 @@
         <v>111</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="BI232" s="1" t="s">
         <v>1653</v>
@@ -48961,13 +48899,13 @@
         <v>99</v>
       </c>
       <c r="BR232" s="1" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="BS232" s="3">
         <v>37735</v>
       </c>
       <c r="BT232" s="1" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="BU232" s="1" t="s">
         <v>118</v>
@@ -48985,13 +48923,13 @@
         <v>98</v>
       </c>
       <c r="CC232" s="1" t="s">
+        <v>2312</v>
+      </c>
+      <c r="CD232" s="1" t="s">
         <v>2313</v>
       </c>
-      <c r="CD232" s="1" t="s">
+      <c r="CE232" s="1" t="s">
         <v>2314</v>
-      </c>
-      <c r="CE232" s="1" t="s">
-        <v>2315</v>
       </c>
     </row>
     <row r="233" spans="1:84" x14ac:dyDescent="0.25">
@@ -49026,13 +48964,13 @@
         <v>93</v>
       </c>
       <c r="K233" s="1" t="s">
+        <v>2315</v>
+      </c>
+      <c r="L233" s="1" t="s">
         <v>2316</v>
       </c>
-      <c r="L233" s="1" t="s">
+      <c r="N233" s="1" t="s">
         <v>2317</v>
-      </c>
-      <c r="N233" s="1" t="s">
-        <v>2318</v>
       </c>
       <c r="O233" s="1" t="s">
         <v>97</v>
@@ -49113,7 +49051,7 @@
         <v>98</v>
       </c>
       <c r="AZ233" s="1" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="BB233" s="1">
         <v>5</v>
@@ -49131,7 +49069,7 @@
         <v>111</v>
       </c>
       <c r="BH233" s="1" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="BM233" s="1" t="s">
         <v>114</v>
@@ -49140,7 +49078,7 @@
         <v>102</v>
       </c>
       <c r="BT233" s="1" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="BU233" s="1" t="s">
         <v>118</v>
@@ -49158,13 +49096,13 @@
         <v>98</v>
       </c>
       <c r="CC233" s="1" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
       <c r="CD233" s="1" t="s">
         <v>791</v>
       </c>
       <c r="CE233" s="1" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="234" spans="1:84" x14ac:dyDescent="0.25">
@@ -49199,13 +49137,13 @@
         <v>93</v>
       </c>
       <c r="K234" s="1" t="s">
+        <v>2323</v>
+      </c>
+      <c r="L234" s="1" t="s">
         <v>2324</v>
       </c>
-      <c r="L234" s="1" t="s">
+      <c r="N234" s="1" t="s">
         <v>2325</v>
-      </c>
-      <c r="N234" s="1" t="s">
-        <v>2326</v>
       </c>
       <c r="O234" s="1" t="s">
         <v>97</v>
@@ -49241,7 +49179,7 @@
         <v>103</v>
       </c>
       <c r="AG234" s="1" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="AH234" s="1" t="s">
         <v>1700</v>
@@ -49286,7 +49224,7 @@
         <v>98</v>
       </c>
       <c r="AZ234" s="1" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="BB234" s="1">
         <v>5</v>
@@ -49304,7 +49242,7 @@
         <v>111</v>
       </c>
       <c r="BH234" s="1" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="BM234" s="1" t="s">
         <v>114</v>
@@ -49313,7 +49251,7 @@
         <v>102</v>
       </c>
       <c r="BT234" s="1" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="BU234" s="1" t="s">
         <v>118</v>
@@ -49334,10 +49272,10 @@
         <v>1415</v>
       </c>
       <c r="CD234" s="1" t="s">
+        <v>2330</v>
+      </c>
+      <c r="CE234" s="1" t="s">
         <v>2331</v>
-      </c>
-      <c r="CE234" s="1" t="s">
-        <v>2332</v>
       </c>
     </row>
     <row r="235" spans="1:84" x14ac:dyDescent="0.25">
@@ -49372,13 +49310,13 @@
         <v>93</v>
       </c>
       <c r="K235" s="1" t="s">
+        <v>2332</v>
+      </c>
+      <c r="L235" s="1" t="s">
         <v>2333</v>
       </c>
-      <c r="L235" s="1" t="s">
+      <c r="N235" s="1" t="s">
         <v>2334</v>
-      </c>
-      <c r="N235" s="1" t="s">
-        <v>2335</v>
       </c>
       <c r="O235" s="1" t="s">
         <v>97</v>
@@ -49459,7 +49397,7 @@
         <v>98</v>
       </c>
       <c r="AZ235" s="1" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="BB235" s="1">
         <v>5</v>
@@ -49477,7 +49415,7 @@
         <v>111</v>
       </c>
       <c r="BH235" s="1" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="BM235" s="1" t="s">
         <v>114</v>
@@ -49486,7 +49424,7 @@
         <v>102</v>
       </c>
       <c r="BT235" s="1" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="BU235" s="1" t="s">
         <v>118</v>
@@ -49510,7 +49448,7 @@
         <v>855</v>
       </c>
       <c r="CE235" s="1" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="236" spans="1:84" x14ac:dyDescent="0.25">
@@ -49545,13 +49483,13 @@
         <v>93</v>
       </c>
       <c r="K236" s="1" t="s">
+        <v>2339</v>
+      </c>
+      <c r="L236" s="1" t="s">
         <v>2340</v>
       </c>
-      <c r="L236" s="1" t="s">
+      <c r="N236" s="1" t="s">
         <v>2341</v>
-      </c>
-      <c r="N236" s="1" t="s">
-        <v>2342</v>
       </c>
       <c r="O236" s="1" t="s">
         <v>97</v>
@@ -49590,7 +49528,7 @@
         <v>600</v>
       </c>
       <c r="AH236" s="1" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="AI236" s="1" t="s">
         <v>98</v>
@@ -49632,7 +49570,7 @@
         <v>98</v>
       </c>
       <c r="AZ236" s="1" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="BB236" s="1">
         <v>5</v>
@@ -49650,7 +49588,7 @@
         <v>111</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="BM236" s="1" t="s">
         <v>114</v>
@@ -49659,7 +49597,7 @@
         <v>102</v>
       </c>
       <c r="BT236" s="1" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="BU236" s="1" t="s">
         <v>118</v>
@@ -49677,13 +49615,13 @@
         <v>98</v>
       </c>
       <c r="CC236" s="1" t="s">
+        <v>2346</v>
+      </c>
+      <c r="CD236" s="1" t="s">
         <v>2347</v>
       </c>
-      <c r="CD236" s="1" t="s">
+      <c r="CE236" s="1" t="s">
         <v>2348</v>
-      </c>
-      <c r="CE236" s="1" t="s">
-        <v>2349</v>
       </c>
     </row>
     <row r="237" spans="1:84" x14ac:dyDescent="0.25">
@@ -49718,13 +49656,13 @@
         <v>144</v>
       </c>
       <c r="K237" s="1" t="s">
+        <v>2349</v>
+      </c>
+      <c r="L237" s="1" t="s">
         <v>2350</v>
       </c>
-      <c r="L237" s="1" t="s">
+      <c r="N237" s="1" t="s">
         <v>2351</v>
-      </c>
-      <c r="N237" s="1" t="s">
-        <v>2352</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>97</v>
@@ -49766,7 +49704,7 @@
         <v>0</v>
       </c>
       <c r="AN237" s="1" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="AO237" s="1">
         <v>0</v>
@@ -49805,13 +49743,13 @@
         <v>111</v>
       </c>
       <c r="BH237" s="1" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="BM237" s="1" t="s">
         <v>114</v>
       </c>
       <c r="BT237" s="1" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="BU237" s="1" t="s">
         <v>118</v>
@@ -49829,13 +49767,13 @@
         <v>98</v>
       </c>
       <c r="CC237" s="1" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="CD237" s="1" t="s">
         <v>301</v>
       </c>
       <c r="CE237" s="1" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="238" spans="1:84" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -49990,7 +49928,7 @@
         <v>111</v>
       </c>
       <c r="BH238" s="4" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="BI238" s="4"/>
       <c r="BJ238" s="4"/>
@@ -50188,7 +50126,7 @@
         <v>111</v>
       </c>
       <c r="BH239" s="4" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="BI239" s="4"/>
       <c r="BJ239" s="4"/>
@@ -50386,7 +50324,7 @@
         <v>111</v>
       </c>
       <c r="BH240" s="4" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="BI240" s="4"/>
       <c r="BJ240" s="4"/>
@@ -50785,7 +50723,7 @@
         <v>111</v>
       </c>
       <c r="BH242" s="4" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="BI242" s="4"/>
       <c r="BJ242" s="4"/>
@@ -50995,7 +50933,7 @@
         <v>111</v>
       </c>
       <c r="BH243" s="4" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="BI243" s="4"/>
       <c r="BJ243" s="4"/>
@@ -51608,7 +51546,7 @@
         <v>111</v>
       </c>
       <c r="BH246" s="4" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="BI246" s="4"/>
       <c r="BJ246" s="4"/>
@@ -51806,7 +51744,7 @@
         <v>111</v>
       </c>
       <c r="BH247" s="4" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="BI247" s="4"/>
       <c r="BJ247" s="4"/>
@@ -52002,7 +51940,7 @@
         <v>111</v>
       </c>
       <c r="BH248" s="4" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="BI248" s="4"/>
       <c r="BJ248" s="4"/>
@@ -52398,7 +52336,7 @@
         <v>111</v>
       </c>
       <c r="BH250" s="4" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="BI250" s="4"/>
       <c r="BJ250" s="4"/>
@@ -52594,7 +52532,7 @@
         <v>111</v>
       </c>
       <c r="BH251" s="4" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="BI251" s="4"/>
       <c r="BJ251" s="4"/>
@@ -52790,7 +52728,7 @@
         <v>111</v>
       </c>
       <c r="BH252" s="4" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="BI252" s="4"/>
       <c r="BJ252" s="4"/>
@@ -52986,7 +52924,7 @@
         <v>111</v>
       </c>
       <c r="BH253" s="4" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="BI253" s="4"/>
       <c r="BJ253" s="4"/>
@@ -53378,7 +53316,7 @@
         <v>111</v>
       </c>
       <c r="BH255" s="4" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="BI255" s="4"/>
       <c r="BJ255" s="4"/>
@@ -53578,7 +53516,7 @@
         <v>111</v>
       </c>
       <c r="BH256" s="4" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="BI256" s="4"/>
       <c r="BJ256" s="4"/>
@@ -53774,7 +53712,7 @@
         <v>111</v>
       </c>
       <c r="BH257" s="4" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="BI257" s="4"/>
       <c r="BJ257" s="4"/>
@@ -53970,7 +53908,7 @@
         <v>111</v>
       </c>
       <c r="BH258" s="4" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="BI258" s="4"/>
       <c r="BJ258" s="4"/>
@@ -54166,7 +54104,7 @@
         <v>111</v>
       </c>
       <c r="BH259" s="4" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="BI259" s="4"/>
       <c r="BJ259" s="4"/>
@@ -54362,7 +54300,7 @@
         <v>111</v>
       </c>
       <c r="BH260" s="4" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="BI260" s="4"/>
       <c r="BJ260" s="4"/>
@@ -54558,7 +54496,7 @@
         <v>111</v>
       </c>
       <c r="BH261" s="4" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="BI261" s="4"/>
       <c r="BJ261" s="4"/>
@@ -54766,7 +54704,7 @@
         <v>111</v>
       </c>
       <c r="BH262" s="4" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="BI262" s="4"/>
       <c r="BJ262" s="4"/>
@@ -54969,7 +54907,7 @@
         <v>111</v>
       </c>
       <c r="BH263" s="4" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="BI263" s="4"/>
       <c r="BJ263" s="4"/>
@@ -55174,7 +55112,7 @@
         <v>111</v>
       </c>
       <c r="BH264" s="4" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="BI264" s="4"/>
       <c r="BJ264" s="4"/>
@@ -55382,7 +55320,7 @@
         <v>111</v>
       </c>
       <c r="BH265" s="4" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="BI265" s="4"/>
       <c r="BJ265" s="4"/>
@@ -55590,7 +55528,7 @@
         <v>111</v>
       </c>
       <c r="BH266" s="4" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="BI266" s="4"/>
       <c r="BJ266" s="4"/>
@@ -55798,7 +55736,7 @@
         <v>111</v>
       </c>
       <c r="BH267" s="4" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="BI267" s="4"/>
       <c r="BJ267" s="4"/>
@@ -56005,7 +55943,7 @@
         <v>111</v>
       </c>
       <c r="BH268" s="4" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="BI268" s="4"/>
       <c r="BJ268" s="4"/>
@@ -56416,7 +56354,7 @@
         <v>111</v>
       </c>
       <c r="BH270" s="4" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="BI270" s="4"/>
       <c r="BJ270" s="4"/>
@@ -56624,7 +56562,7 @@
         <v>111</v>
       </c>
       <c r="BH271" s="4" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="BI271" s="4"/>
       <c r="BJ271" s="4"/>
@@ -56827,7 +56765,7 @@
         <v>111</v>
       </c>
       <c r="BH272" s="4" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="BI272" s="4"/>
       <c r="BJ272" s="4"/>
@@ -57033,7 +56971,7 @@
         <v>111</v>
       </c>
       <c r="BH273" s="4" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="BI273" s="4"/>
       <c r="BJ273" s="4"/>
@@ -57239,7 +57177,7 @@
         <v>111</v>
       </c>
       <c r="BH274" s="4" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="BI274" s="4"/>
       <c r="BJ274" s="4"/>
@@ -57442,7 +57380,7 @@
         <v>111</v>
       </c>
       <c r="BH275" s="4" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="BI275" s="4"/>
       <c r="BJ275" s="4"/>
@@ -57640,7 +57578,7 @@
         <v>111</v>
       </c>
       <c r="BH276" s="4" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="BI276" s="4"/>
       <c r="BJ276" s="4"/>
@@ -57836,7 +57774,7 @@
         <v>111</v>
       </c>
       <c r="BH277" s="4" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="BI277" s="4"/>
       <c r="BJ277" s="4"/>
@@ -58041,7 +57979,7 @@
         <v>111</v>
       </c>
       <c r="BH278" s="4" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="BI278" s="4"/>
       <c r="BJ278" s="4"/>
@@ -58235,7 +58173,7 @@
         <v>111</v>
       </c>
       <c r="BH279" s="4" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="BI279" s="4"/>
       <c r="BJ279" s="4"/>
@@ -58436,7 +58374,7 @@
         <v>111</v>
       </c>
       <c r="BH280" s="4" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="BI280" s="4"/>
       <c r="BJ280" s="4"/>
@@ -58637,7 +58575,7 @@
         <v>111</v>
       </c>
       <c r="BH281" s="4" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="BI281" s="4"/>
       <c r="BJ281" s="4"/>
@@ -58838,7 +58776,7 @@
         <v>111</v>
       </c>
       <c r="BH282" s="4" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="BI282" s="4"/>
       <c r="BJ282" s="4"/>
@@ -59042,7 +58980,7 @@
         <v>111</v>
       </c>
       <c r="BH283" s="4" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="BI283" s="4"/>
       <c r="BJ283" s="4"/>
@@ -59247,7 +59185,7 @@
         <v>111</v>
       </c>
       <c r="BH284" s="4" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="BI284" s="4"/>
       <c r="BJ284" s="4"/>
@@ -59443,7 +59381,7 @@
         <v>111</v>
       </c>
       <c r="BH285" s="4" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="BI285" s="4"/>
       <c r="BJ285" s="4"/>
@@ -59637,7 +59575,7 @@
         <v>111</v>
       </c>
       <c r="BH286" s="4" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="BI286" s="4"/>
       <c r="BJ286" s="4"/>
@@ -59840,7 +59778,7 @@
         <v>111</v>
       </c>
       <c r="BH287" s="4" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="BI287" s="4"/>
       <c r="BJ287" s="4"/>
@@ -60036,7 +59974,7 @@
         <v>111</v>
       </c>
       <c r="BH288" s="4" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="BI288" s="4"/>
       <c r="BJ288" s="4"/>
@@ -60238,7 +60176,7 @@
         <v>111</v>
       </c>
       <c r="BH289" s="4" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="BI289" s="4"/>
       <c r="BJ289" s="4"/>
@@ -60451,7 +60389,7 @@
         <v>111</v>
       </c>
       <c r="BH290" s="4" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="BI290" s="4"/>
       <c r="BJ290" s="4"/>
@@ -60655,7 +60593,7 @@
         <v>111</v>
       </c>
       <c r="BH291" s="4" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="BI291" s="4"/>
       <c r="BJ291" s="4"/>
@@ -60863,7 +60801,7 @@
         <v>111</v>
       </c>
       <c r="BH292" s="4" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="BI292" s="4"/>
       <c r="BJ292" s="4"/>
@@ -61064,7 +61002,7 @@
         <v>111</v>
       </c>
       <c r="BH293" s="4" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="BI293" s="4"/>
       <c r="BJ293" s="4"/>
@@ -61260,7 +61198,7 @@
         <v>111</v>
       </c>
       <c r="BH294" s="4" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="BI294" s="4"/>
       <c r="BJ294" s="4"/>
@@ -61465,7 +61403,7 @@
         <v>111</v>
       </c>
       <c r="BH295" s="4" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="BI295" s="4"/>
       <c r="BJ295" s="4"/>
@@ -61663,7 +61601,7 @@
         <v>111</v>
       </c>
       <c r="BH296" s="4" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="BI296" s="4"/>
       <c r="BJ296" s="4"/>
@@ -61863,7 +61801,7 @@
         <v>111</v>
       </c>
       <c r="BH297" s="4" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="BI297" s="4"/>
       <c r="BJ297" s="4"/>
@@ -62061,7 +61999,7 @@
         <v>111</v>
       </c>
       <c r="BH298" s="4" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="BI298" s="4"/>
       <c r="BJ298" s="4"/>
@@ -62181,12 +62119,8 @@
         <v>0</v>
       </c>
       <c r="AB299" s="4"/>
-      <c r="AC299" s="5">
-        <v>42309</v>
-      </c>
-      <c r="AD299" s="4" t="s">
-        <v>2116</v>
-      </c>
+      <c r="AC299" s="5"/>
+      <c r="AD299" s="4"/>
       <c r="AF299" s="4" t="s">
         <v>103</v>
       </c>
@@ -62262,7 +62196,7 @@
         <v>111</v>
       </c>
       <c r="BH299" s="4" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="BI299" s="4"/>
       <c r="BJ299" s="4"/>
@@ -62277,7 +62211,7 @@
       <c r="BQ299" s="4"/>
       <c r="BR299" s="4"/>
       <c r="BT299" s="4" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="BU299" s="4" t="s">
         <v>118</v>
@@ -62300,13 +62234,13 @@
         <v>98</v>
       </c>
       <c r="CC299" s="4" t="s">
+        <v>2118</v>
+      </c>
+      <c r="CD299" s="4" t="s">
         <v>2119</v>
       </c>
-      <c r="CD299" s="4" t="s">
+      <c r="CE299" s="4" t="s">
         <v>2120</v>
-      </c>
-      <c r="CE299" s="4" t="s">
-        <v>2121</v>
       </c>
       <c r="CF299" s="4"/>
     </row>
@@ -62342,14 +62276,14 @@
         <v>93</v>
       </c>
       <c r="K300" s="4" t="s">
+        <v>2121</v>
+      </c>
+      <c r="L300" s="4" t="s">
         <v>2122</v>
-      </c>
-      <c r="L300" s="4" t="s">
-        <v>2123</v>
       </c>
       <c r="M300" s="4"/>
       <c r="N300" s="4" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="O300" s="4" t="s">
         <v>97</v>
@@ -62384,12 +62318,8 @@
       <c r="AB300" s="4" t="s">
         <v>1099</v>
       </c>
-      <c r="AC300" s="5">
-        <v>42309</v>
-      </c>
-      <c r="AD300" s="4" t="s">
-        <v>2116</v>
-      </c>
+      <c r="AC300" s="5"/>
+      <c r="AD300" s="4"/>
       <c r="AF300" s="4" t="s">
         <v>103</v>
       </c>
@@ -62443,7 +62373,7 @@
         <v>98</v>
       </c>
       <c r="AZ300" s="4" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="BA300" s="4" t="s">
         <v>271</v>
@@ -62465,7 +62395,7 @@
         <v>111</v>
       </c>
       <c r="BH300" s="4" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="BI300" s="4"/>
       <c r="BJ300" s="4"/>
@@ -62481,13 +62411,13 @@
       <c r="BP300" s="4"/>
       <c r="BQ300" s="4"/>
       <c r="BR300" s="4" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="BS300" s="5">
         <v>36949</v>
       </c>
       <c r="BT300" s="4" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="BU300" s="4" t="s">
         <v>118</v>
@@ -62512,13 +62442,13 @@
         <v>98</v>
       </c>
       <c r="CC300" s="4" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="CD300" s="4" t="s">
         <v>1762</v>
       </c>
       <c r="CE300" s="4" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="CF300" s="4"/>
     </row>
@@ -62554,14 +62484,14 @@
         <v>93</v>
       </c>
       <c r="K301" s="4" t="s">
+        <v>2130</v>
+      </c>
+      <c r="L301" s="4" t="s">
         <v>2131</v>
-      </c>
-      <c r="L301" s="4" t="s">
-        <v>2132</v>
       </c>
       <c r="M301" s="4"/>
       <c r="N301" s="4" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="O301" s="4" t="s">
         <v>97</v>
@@ -62596,12 +62526,8 @@
       <c r="AB301" s="4" t="s">
         <v>1099</v>
       </c>
-      <c r="AC301" s="5">
-        <v>42309</v>
-      </c>
-      <c r="AD301" s="4" t="s">
-        <v>2116</v>
-      </c>
+      <c r="AC301" s="5"/>
+      <c r="AD301" s="4"/>
       <c r="AF301" s="4" t="s">
         <v>103</v>
       </c>
@@ -62655,7 +62581,7 @@
         <v>98</v>
       </c>
       <c r="AZ301" s="4" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="BA301" s="4" t="s">
         <v>271</v>
@@ -62679,7 +62605,7 @@
         <v>111</v>
       </c>
       <c r="BH301" s="4" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="BI301" s="4"/>
       <c r="BJ301" s="4"/>
@@ -62695,13 +62621,13 @@
       <c r="BP301" s="4"/>
       <c r="BQ301" s="4"/>
       <c r="BR301" s="4" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="BS301" s="5">
         <v>36825</v>
       </c>
       <c r="BT301" s="4" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="BU301" s="4" t="s">
         <v>118</v>
@@ -62726,13 +62652,13 @@
         <v>98</v>
       </c>
       <c r="CC301" s="4" t="s">
+        <v>2138</v>
+      </c>
+      <c r="CD301" s="4" t="s">
         <v>2139</v>
       </c>
-      <c r="CD301" s="4" t="s">
+      <c r="CE301" s="4" t="s">
         <v>2140</v>
-      </c>
-      <c r="CE301" s="4" t="s">
-        <v>2141</v>
       </c>
       <c r="CF301" s="4"/>
     </row>
@@ -62768,14 +62694,14 @@
         <v>144</v>
       </c>
       <c r="K302" s="4" t="s">
+        <v>2234</v>
+      </c>
+      <c r="L302" s="4" t="s">
         <v>2235</v>
-      </c>
-      <c r="L302" s="4" t="s">
-        <v>2236</v>
       </c>
       <c r="M302" s="4"/>
       <c r="N302" s="4" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="O302" s="4" t="s">
         <v>97</v>
@@ -62834,7 +62760,7 @@
         <v>0</v>
       </c>
       <c r="AN302" s="4" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="AO302" s="4">
         <v>0</v>
@@ -62886,7 +62812,7 @@
         <v>111</v>
       </c>
       <c r="BH302" s="4" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="BI302" s="4"/>
       <c r="BJ302" s="4"/>
@@ -62901,7 +62827,7 @@
       <c r="BQ302" s="4"/>
       <c r="BR302" s="4"/>
       <c r="BT302" s="4" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="BU302" s="4" t="s">
         <v>118</v>
@@ -62924,13 +62850,13 @@
         <v>98</v>
       </c>
       <c r="CC302" s="4" t="s">
+        <v>2239</v>
+      </c>
+      <c r="CD302" s="4" t="s">
         <v>2240</v>
       </c>
-      <c r="CD302" s="4" t="s">
+      <c r="CE302" s="4" t="s">
         <v>2241</v>
-      </c>
-      <c r="CE302" s="4" t="s">
-        <v>2242</v>
       </c>
       <c r="CF302" s="4"/>
     </row>
@@ -62966,14 +62892,14 @@
         <v>144</v>
       </c>
       <c r="K303" s="4" t="s">
+        <v>2242</v>
+      </c>
+      <c r="L303" s="4" t="s">
         <v>2243</v>
-      </c>
-      <c r="L303" s="4" t="s">
-        <v>2244</v>
       </c>
       <c r="M303" s="4"/>
       <c r="N303" s="4" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="O303" s="4" t="s">
         <v>97</v>
@@ -63032,7 +62958,7 @@
         <v>0</v>
       </c>
       <c r="AN303" s="4" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="AO303" s="4">
         <v>0</v>
@@ -63084,7 +63010,7 @@
         <v>111</v>
       </c>
       <c r="BH303" s="4" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="BI303" s="4"/>
       <c r="BJ303" s="4"/>
@@ -63099,7 +63025,7 @@
       <c r="BQ303" s="4"/>
       <c r="BR303" s="4"/>
       <c r="BT303" s="4" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="BU303" s="4" t="s">
         <v>118</v>
@@ -63122,13 +63048,13 @@
         <v>98</v>
       </c>
       <c r="CC303" s="4" t="s">
+        <v>2247</v>
+      </c>
+      <c r="CD303" s="4" t="s">
         <v>2248</v>
       </c>
-      <c r="CD303" s="4" t="s">
+      <c r="CE303" s="4" t="s">
         <v>2249</v>
-      </c>
-      <c r="CE303" s="4" t="s">
-        <v>2250</v>
       </c>
       <c r="CF303" s="4"/>
     </row>
@@ -63164,14 +63090,14 @@
         <v>144</v>
       </c>
       <c r="K304" s="4" t="s">
+        <v>2250</v>
+      </c>
+      <c r="L304" s="4" t="s">
         <v>2251</v>
-      </c>
-      <c r="L304" s="4" t="s">
-        <v>2252</v>
       </c>
       <c r="M304" s="4"/>
       <c r="N304" s="4" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="O304" s="4" t="s">
         <v>97</v>
@@ -63280,7 +63206,7 @@
         <v>111</v>
       </c>
       <c r="BH304" s="4" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="BI304" s="4"/>
       <c r="BJ304" s="4"/>
@@ -63295,7 +63221,7 @@
       <c r="BQ304" s="4"/>
       <c r="BR304" s="4"/>
       <c r="BT304" s="4" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="BU304" s="4" t="s">
         <v>118</v>
@@ -63318,10 +63244,10 @@
         <v>98</v>
       </c>
       <c r="CC304" s="4" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="CD304" s="4" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="CE304" s="4" t="s">
         <v>199</v>
@@ -63360,14 +63286,14 @@
         <v>144</v>
       </c>
       <c r="K305" s="4" t="s">
+        <v>2256</v>
+      </c>
+      <c r="L305" s="4" t="s">
         <v>2257</v>
-      </c>
-      <c r="L305" s="4" t="s">
-        <v>2258</v>
       </c>
       <c r="M305" s="4"/>
       <c r="N305" s="4" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="O305" s="4" t="s">
         <v>97</v>
@@ -63426,7 +63352,7 @@
         <v>0</v>
       </c>
       <c r="AN305" s="4" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="AO305" s="4">
         <v>0</v>
@@ -63478,7 +63404,7 @@
         <v>111</v>
       </c>
       <c r="BH305" s="4" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="BI305" s="4"/>
       <c r="BJ305" s="4"/>
@@ -63493,7 +63419,7 @@
       <c r="BQ305" s="4"/>
       <c r="BR305" s="4"/>
       <c r="BT305" s="4" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="BU305" s="4" t="s">
         <v>118</v>
@@ -63518,13 +63444,13 @@
         <v>98</v>
       </c>
       <c r="CC305" s="4" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="CD305" s="4" t="s">
         <v>1107</v>
       </c>
       <c r="CE305" s="4" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="CF305" s="4"/>
     </row>
@@ -63560,14 +63486,14 @@
         <v>93</v>
       </c>
       <c r="K306" s="4" t="s">
+        <v>2270</v>
+      </c>
+      <c r="L306" s="4" t="s">
         <v>2271</v>
-      </c>
-      <c r="L306" s="4" t="s">
-        <v>2272</v>
       </c>
       <c r="M306" s="4"/>
       <c r="N306" s="4" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="O306" s="4" t="s">
         <v>97</v>
@@ -63609,7 +63535,7 @@
         <v>42247</v>
       </c>
       <c r="AD306" s="4" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="AF306" s="4" t="s">
         <v>103</v>
@@ -63686,7 +63612,7 @@
         <v>111</v>
       </c>
       <c r="BH306" s="4" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="BI306" s="4"/>
       <c r="BJ306" s="4"/>
@@ -63702,13 +63628,13 @@
       <c r="BP306" s="4"/>
       <c r="BQ306" s="4"/>
       <c r="BR306" s="4" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="BS306" s="5">
         <v>36580</v>
       </c>
       <c r="BT306" s="4" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="BU306" s="4" t="s">
         <v>118</v>
@@ -63731,7 +63657,7 @@
         <v>98</v>
       </c>
       <c r="CC306" s="4" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="CD306" s="4" t="s">
         <v>291</v>
@@ -63773,14 +63699,14 @@
         <v>93</v>
       </c>
       <c r="K307" s="4" t="s">
+        <v>2287</v>
+      </c>
+      <c r="L307" s="4" t="s">
         <v>2288</v>
-      </c>
-      <c r="L307" s="4" t="s">
-        <v>2289</v>
       </c>
       <c r="M307" s="4"/>
       <c r="N307" s="4" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="O307" s="4" t="s">
         <v>97</v>
@@ -63871,7 +63797,7 @@
         <v>98</v>
       </c>
       <c r="AZ307" s="4" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="BA307" s="4" t="s">
         <v>271</v>
@@ -63893,7 +63819,7 @@
         <v>111</v>
       </c>
       <c r="BH307" s="4" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="BI307" s="4"/>
       <c r="BJ307" s="4"/>
@@ -63910,7 +63836,7 @@
       <c r="BQ307" s="4"/>
       <c r="BR307" s="4"/>
       <c r="BT307" s="4" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="BU307" s="4" t="s">
         <v>118</v>
@@ -63931,13 +63857,13 @@
         <v>98</v>
       </c>
       <c r="CC307" s="4" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="CD307" s="4" t="s">
         <v>413</v>
       </c>
       <c r="CE307" s="4" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="CF307" s="4"/>
     </row>
@@ -63973,14 +63899,14 @@
         <v>93</v>
       </c>
       <c r="K308" s="4" t="s">
+        <v>2295</v>
+      </c>
+      <c r="L308" s="4" t="s">
         <v>2296</v>
-      </c>
-      <c r="L308" s="4" t="s">
-        <v>2297</v>
       </c>
       <c r="M308" s="4"/>
       <c r="N308" s="4" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="O308" s="4" t="s">
         <v>97</v>
@@ -64069,7 +63995,7 @@
         <v>98</v>
       </c>
       <c r="AZ308" s="4" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="BA308" s="4" t="s">
         <v>271</v>
@@ -64091,7 +64017,7 @@
         <v>111</v>
       </c>
       <c r="BH308" s="4" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="BI308" s="4"/>
       <c r="BJ308" s="4"/>
@@ -64107,13 +64033,13 @@
       <c r="BP308" s="4"/>
       <c r="BQ308" s="4"/>
       <c r="BR308" s="4" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="BS308" s="5">
         <v>36099</v>
       </c>
       <c r="BT308" s="4" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="BU308" s="4" t="s">
         <v>118</v>
@@ -64134,13 +64060,13 @@
         <v>98</v>
       </c>
       <c r="CC308" s="4" t="s">
+        <v>2302</v>
+      </c>
+      <c r="CD308" s="4" t="s">
         <v>2303</v>
       </c>
-      <c r="CD308" s="4" t="s">
+      <c r="CE308" s="4" t="s">
         <v>2304</v>
-      </c>
-      <c r="CE308" s="4" t="s">
-        <v>2305</v>
       </c>
       <c r="CF308" s="4"/>
     </row>
@@ -64176,14 +64102,14 @@
         <v>93</v>
       </c>
       <c r="K309" s="4" t="s">
+        <v>2305</v>
+      </c>
+      <c r="L309" s="4" t="s">
         <v>2306</v>
-      </c>
-      <c r="L309" s="4" t="s">
-        <v>2307</v>
       </c>
       <c r="M309" s="4"/>
       <c r="N309" s="4" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="O309" s="4" t="s">
         <v>97</v>
@@ -64272,7 +64198,7 @@
         <v>98</v>
       </c>
       <c r="AZ309" s="4" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="BA309" s="4" t="s">
         <v>271</v>
@@ -64294,7 +64220,7 @@
         <v>111</v>
       </c>
       <c r="BH309" s="4" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="BI309" s="4"/>
       <c r="BJ309" s="4"/>
@@ -64310,13 +64236,13 @@
       <c r="BP309" s="4"/>
       <c r="BQ309" s="4"/>
       <c r="BR309" s="4" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="BS309" s="5">
         <v>37735</v>
       </c>
       <c r="BT309" s="4" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="BU309" s="4" t="s">
         <v>118</v>
@@ -64337,13 +64263,13 @@
         <v>98</v>
       </c>
       <c r="CC309" s="4" t="s">
+        <v>2312</v>
+      </c>
+      <c r="CD309" s="4" t="s">
         <v>2313</v>
       </c>
-      <c r="CD309" s="4" t="s">
+      <c r="CE309" s="4" t="s">
         <v>2314</v>
-      </c>
-      <c r="CE309" s="4" t="s">
-        <v>2315</v>
       </c>
       <c r="CF309" s="4"/>
     </row>
@@ -64379,14 +64305,14 @@
         <v>93</v>
       </c>
       <c r="K310" s="4" t="s">
+        <v>2339</v>
+      </c>
+      <c r="L310" s="4" t="s">
         <v>2340</v>
-      </c>
-      <c r="L310" s="4" t="s">
-        <v>2341</v>
       </c>
       <c r="M310" s="4"/>
       <c r="N310" s="4" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="O310" s="4" t="s">
         <v>97</v>
@@ -64429,7 +64355,7 @@
         <v>600</v>
       </c>
       <c r="AH310" s="4" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="AI310" s="4" t="s">
         <v>98</v>
@@ -64477,7 +64403,7 @@
         <v>98</v>
       </c>
       <c r="AZ310" s="4" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="BA310" s="4" t="s">
         <v>271</v>
@@ -64499,7 +64425,7 @@
         <v>111</v>
       </c>
       <c r="BH310" s="4" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="BI310" s="4"/>
       <c r="BJ310" s="4"/>
@@ -64514,7 +64440,7 @@
       <c r="BQ310" s="4"/>
       <c r="BR310" s="4"/>
       <c r="BT310" s="4" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="BU310" s="4" t="s">
         <v>118</v>
@@ -64535,13 +64461,13 @@
         <v>98</v>
       </c>
       <c r="CC310" s="4" t="s">
+        <v>2346</v>
+      </c>
+      <c r="CD310" s="4" t="s">
         <v>2347</v>
       </c>
-      <c r="CD310" s="4" t="s">
+      <c r="CE310" s="4" t="s">
         <v>2348</v>
-      </c>
-      <c r="CE310" s="4" t="s">
-        <v>2349</v>
       </c>
       <c r="CF310" s="4"/>
     </row>
@@ -64577,14 +64503,14 @@
         <v>144</v>
       </c>
       <c r="K311" s="4" t="s">
+        <v>2349</v>
+      </c>
+      <c r="L311" s="4" t="s">
         <v>2350</v>
-      </c>
-      <c r="L311" s="4" t="s">
-        <v>2351</v>
       </c>
       <c r="M311" s="4"/>
       <c r="N311" s="4" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="O311" s="4" t="s">
         <v>97</v>
@@ -64634,7 +64560,7 @@
         <v>0</v>
       </c>
       <c r="AN311" s="4" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="AO311" s="4">
         <v>0</v>
@@ -64684,7 +64610,7 @@
         <v>111</v>
       </c>
       <c r="BH311" s="4" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="BI311" s="4"/>
       <c r="BJ311" s="4"/>
@@ -64699,7 +64625,7 @@
       <c r="BQ311" s="4"/>
       <c r="BR311" s="4"/>
       <c r="BT311" s="4" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="BU311" s="4" t="s">
         <v>118</v>
@@ -64720,17 +64646,18 @@
         <v>98</v>
       </c>
       <c r="CC311" s="4" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="CD311" s="4" t="s">
         <v>301</v>
       </c>
       <c r="CE311" s="4" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="CF311" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CF311" xr:uid="{E6721C82-82AD-45EC-9726-D388B8DA3042}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>